--- a/data_year/zb/体育/体育系统机构人员情况/体育系统人员数.xlsx
+++ b/data_year/zb/体育/体育系统机构人员情况/体育系统人员数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS12"/>
+  <dimension ref="A1:BS13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2970,6 +2970,203 @@
         <v>35392</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>159346</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11375</v>
+      </c>
+      <c r="D13" t="n">
+        <v>32443</v>
+      </c>
+      <c r="E13" t="n">
+        <v>15955</v>
+      </c>
+      <c r="F13" t="n">
+        <v>26042</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2702</v>
+      </c>
+      <c r="H13" t="n">
+        <v>470</v>
+      </c>
+      <c r="I13" t="n">
+        <v>47103</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2115</v>
+      </c>
+      <c r="K13" t="n">
+        <v>22582</v>
+      </c>
+      <c r="L13" t="n">
+        <v>589</v>
+      </c>
+      <c r="M13" t="n">
+        <v>10523</v>
+      </c>
+      <c r="N13" t="n">
+        <v>214</v>
+      </c>
+      <c r="O13" t="n">
+        <v>52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>9710</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>582</v>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="n">
+        <v>19</v>
+      </c>
+      <c r="V13" t="n">
+        <v>39</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5683</v>
+      </c>
+      <c r="X13" t="n">
+        <v>451</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>234</v>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="n">
+        <v>796</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>553</v>
+      </c>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="n">
+        <v>1144</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="n">
+        <v>598</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1781</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>50031</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>6462</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>7994</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>12910</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>7653</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>791</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>391</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>9185</v>
+      </c>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="n">
+        <v>232</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>162</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>465</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>440</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>2331</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>19037</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>5416</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>56529</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>2347</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>1633</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>2456</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>7070</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>1144</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>27</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>142</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>4272</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>932</v>
+      </c>
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="n">
+        <v>4841</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>1661</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>29853</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>1290</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>744</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>5306</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>2718</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>34004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
